--- a/output_excel/outRL4.xlsx
+++ b/output_excel/outRL4.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Context-Table" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Context-Table1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
